--- a/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW10.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW10.xlsx
@@ -3105,37 +3105,37 @@
         <v>79.0</v>
       </c>
       <c r="B80" t="n">
-        <v>2.430739638188996</v>
+        <v>0.0</v>
       </c>
       <c r="C80" t="n">
-        <v>2.050301783876458</v>
+        <v>0.0</v>
       </c>
       <c r="D80" t="n">
-        <v>2.430739638188996</v>
+        <v>0.0</v>
       </c>
       <c r="E80" t="n">
-        <v>2.050301783876458</v>
+        <v>0.0</v>
       </c>
       <c r="F80" t="n">
-        <v>2.430739638188996</v>
+        <v>0.0</v>
       </c>
       <c r="G80" t="n">
-        <v>2.050301783876458</v>
+        <v>0.0</v>
       </c>
       <c r="H80" t="n">
-        <v>2.430739638188996</v>
+        <v>0.0</v>
       </c>
       <c r="I80" t="n">
-        <v>2.050301783876458</v>
+        <v>0.0</v>
       </c>
       <c r="J80" t="n">
-        <v>2.430739638188996</v>
+        <v>0.0</v>
       </c>
       <c r="K80" t="n">
-        <v>2.050301783876458</v>
+        <v>0.0</v>
       </c>
       <c r="L80" t="n">
-        <v>2.430739638188996</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="81">
@@ -4283,37 +4283,37 @@
         <v>110.0</v>
       </c>
       <c r="B111" t="n">
-        <v>0.23328536220300328</v>
+        <v>0.0</v>
       </c>
       <c r="C111" t="n">
-        <v>0.20918572743718386</v>
+        <v>0.0</v>
       </c>
       <c r="D111" t="n">
-        <v>0.23328536220300328</v>
+        <v>0.0</v>
       </c>
       <c r="E111" t="n">
-        <v>0.20918572743718386</v>
+        <v>0.0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.23328536220300328</v>
+        <v>0.0</v>
       </c>
       <c r="G111" t="n">
-        <v>0.20918572743718386</v>
+        <v>0.0</v>
       </c>
       <c r="H111" t="n">
-        <v>0.23328536220300328</v>
+        <v>0.0</v>
       </c>
       <c r="I111" t="n">
-        <v>0.20918572743718386</v>
+        <v>0.0</v>
       </c>
       <c r="J111" t="n">
-        <v>0.23328536220300328</v>
+        <v>0.0</v>
       </c>
       <c r="K111" t="n">
-        <v>0.20918572743718386</v>
+        <v>0.0</v>
       </c>
       <c r="L111" t="n">
-        <v>0.23328536220300328</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="112">
@@ -8083,37 +8083,37 @@
         <v>210.0</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.2764211996420079</v>
+        <v>-0.0</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.26650904556363414</v>
+        <v>-0.0</v>
       </c>
       <c r="D211" t="n">
-        <v>-0.2764211996420079</v>
+        <v>-0.0</v>
       </c>
       <c r="E211" t="n">
-        <v>-0.26650904556363414</v>
+        <v>-0.0</v>
       </c>
       <c r="F211" t="n">
-        <v>-0.2764211996420079</v>
+        <v>-0.0</v>
       </c>
       <c r="G211" t="n">
-        <v>-0.26650904556363414</v>
+        <v>-0.0</v>
       </c>
       <c r="H211" t="n">
-        <v>-0.2764211996420079</v>
+        <v>-0.0</v>
       </c>
       <c r="I211" t="n">
-        <v>-0.26650904556363414</v>
+        <v>-0.0</v>
       </c>
       <c r="J211" t="n">
-        <v>-0.2764211996420079</v>
+        <v>-0.0</v>
       </c>
       <c r="K211" t="n">
-        <v>-0.26650904556363414</v>
+        <v>-0.0</v>
       </c>
       <c r="L211" t="n">
-        <v>-0.2764211996420079</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="212">
@@ -8615,37 +8615,37 @@
         <v>224.0</v>
       </c>
       <c r="B225" t="n">
-        <v>2.8452129025986097</v>
+        <v>0.0</v>
       </c>
       <c r="C225" t="n">
-        <v>3.2039002968796093</v>
+        <v>0.0</v>
       </c>
       <c r="D225" t="n">
-        <v>2.8452129025986097</v>
+        <v>0.0</v>
       </c>
       <c r="E225" t="n">
-        <v>3.2039002968796093</v>
+        <v>0.0</v>
       </c>
       <c r="F225" t="n">
-        <v>2.8452129025986097</v>
+        <v>0.0</v>
       </c>
       <c r="G225" t="n">
-        <v>3.2039002968796093</v>
+        <v>0.0</v>
       </c>
       <c r="H225" t="n">
-        <v>2.8452129025986097</v>
+        <v>0.0</v>
       </c>
       <c r="I225" t="n">
-        <v>3.2039002968796093</v>
+        <v>0.0</v>
       </c>
       <c r="J225" t="n">
-        <v>2.8452129025986097</v>
+        <v>0.0</v>
       </c>
       <c r="K225" t="n">
-        <v>3.2039002968796093</v>
+        <v>0.0</v>
       </c>
       <c r="L225" t="n">
-        <v>2.8452129025986097</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="226">
@@ -9679,37 +9679,37 @@
         <v>252.0</v>
       </c>
       <c r="B253" t="n">
-        <v>1.7705186585454973</v>
+        <v>0.0</v>
       </c>
       <c r="C253" t="n">
-        <v>2.257725580706357</v>
+        <v>0.0</v>
       </c>
       <c r="D253" t="n">
-        <v>1.7705186585454973</v>
+        <v>0.0</v>
       </c>
       <c r="E253" t="n">
-        <v>2.257725580706357</v>
+        <v>0.0</v>
       </c>
       <c r="F253" t="n">
-        <v>1.7705186585454973</v>
+        <v>0.0</v>
       </c>
       <c r="G253" t="n">
-        <v>2.257725580706357</v>
+        <v>0.0</v>
       </c>
       <c r="H253" t="n">
-        <v>1.7705186585454973</v>
+        <v>0.0</v>
       </c>
       <c r="I253" t="n">
-        <v>2.257725580706357</v>
+        <v>0.0</v>
       </c>
       <c r="J253" t="n">
-        <v>1.7705186585454973</v>
+        <v>0.0</v>
       </c>
       <c r="K253" t="n">
-        <v>2.257725580706357</v>
+        <v>0.0</v>
       </c>
       <c r="L253" t="n">
-        <v>1.7705186585454973</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="254">
@@ -12719,37 +12719,37 @@
         <v>332.0</v>
       </c>
       <c r="B333" t="n">
-        <v>0.5636856190919142</v>
+        <v>0.0</v>
       </c>
       <c r="C333" t="n">
-        <v>0.5054538577221687</v>
+        <v>0.0</v>
       </c>
       <c r="D333" t="n">
-        <v>0.5636856190919142</v>
+        <v>0.0</v>
       </c>
       <c r="E333" t="n">
-        <v>0.5054538577221687</v>
+        <v>0.0</v>
       </c>
       <c r="F333" t="n">
-        <v>0.5636856190919142</v>
+        <v>0.0</v>
       </c>
       <c r="G333" t="n">
-        <v>0.5054538577221687</v>
+        <v>0.0</v>
       </c>
       <c r="H333" t="n">
-        <v>0.5636856190919142</v>
+        <v>0.0</v>
       </c>
       <c r="I333" t="n">
-        <v>0.5054538577221687</v>
+        <v>0.0</v>
       </c>
       <c r="J333" t="n">
-        <v>0.5636856190919142</v>
+        <v>0.0</v>
       </c>
       <c r="K333" t="n">
-        <v>0.5054538577221687</v>
+        <v>0.0</v>
       </c>
       <c r="L333" t="n">
-        <v>0.5636856190919142</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="334">
@@ -14011,37 +14011,37 @@
         <v>366.0</v>
       </c>
       <c r="B367" t="n">
-        <v>0.4520148395175483</v>
+        <v>0.0</v>
       </c>
       <c r="C367" t="n">
-        <v>0.5138412719702398</v>
+        <v>0.0</v>
       </c>
       <c r="D367" t="n">
-        <v>0.4520148395175483</v>
+        <v>0.0</v>
       </c>
       <c r="E367" t="n">
-        <v>0.5138412719702398</v>
+        <v>0.0</v>
       </c>
       <c r="F367" t="n">
-        <v>0.4520148395175483</v>
+        <v>0.0</v>
       </c>
       <c r="G367" t="n">
-        <v>0.5138412719702398</v>
+        <v>0.0</v>
       </c>
       <c r="H367" t="n">
-        <v>0.4520148395175483</v>
+        <v>0.0</v>
       </c>
       <c r="I367" t="n">
-        <v>0.5138412719702398</v>
+        <v>0.0</v>
       </c>
       <c r="J367" t="n">
-        <v>0.4520148395175483</v>
+        <v>0.0</v>
       </c>
       <c r="K367" t="n">
-        <v>0.5138412719702398</v>
+        <v>0.0</v>
       </c>
       <c r="L367" t="n">
-        <v>0.4520148395175483</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="368">
@@ -15075,37 +15075,37 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="n">
-        <v>6.819777140000459</v>
+        <v>0.0</v>
       </c>
       <c r="C395" t="n">
-        <v>6.235205508687184</v>
+        <v>0.0</v>
       </c>
       <c r="D395" t="n">
-        <v>6.819777140000459</v>
+        <v>0.0</v>
       </c>
       <c r="E395" t="n">
-        <v>6.235205508687184</v>
+        <v>0.0</v>
       </c>
       <c r="F395" t="n">
-        <v>6.819777140000459</v>
+        <v>0.0</v>
       </c>
       <c r="G395" t="n">
-        <v>6.235205508687184</v>
+        <v>0.0</v>
       </c>
       <c r="H395" t="n">
-        <v>6.819777140000459</v>
+        <v>0.0</v>
       </c>
       <c r="I395" t="n">
-        <v>6.235205508687184</v>
+        <v>0.0</v>
       </c>
       <c r="J395" t="n">
-        <v>6.819777140000459</v>
+        <v>0.0</v>
       </c>
       <c r="K395" t="n">
-        <v>6.235205508687184</v>
+        <v>0.0</v>
       </c>
       <c r="L395" t="n">
-        <v>6.819777140000459</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="396">
@@ -15265,37 +15265,37 @@
         <v>399.0</v>
       </c>
       <c r="B400" t="n">
-        <v>0.84418404753434</v>
+        <v>0.0</v>
       </c>
       <c r="C400" t="n">
-        <v>0.7718230252215551</v>
+        <v>0.0</v>
       </c>
       <c r="D400" t="n">
-        <v>0.84418404753434</v>
+        <v>0.0</v>
       </c>
       <c r="E400" t="n">
-        <v>0.7718230252215551</v>
+        <v>0.0</v>
       </c>
       <c r="F400" t="n">
-        <v>0.84418404753434</v>
+        <v>0.0</v>
       </c>
       <c r="G400" t="n">
-        <v>0.7718230252215551</v>
+        <v>0.0</v>
       </c>
       <c r="H400" t="n">
-        <v>0.84418404753434</v>
+        <v>0.0</v>
       </c>
       <c r="I400" t="n">
-        <v>0.7718230252215551</v>
+        <v>0.0</v>
       </c>
       <c r="J400" t="n">
-        <v>0.84418404753434</v>
+        <v>0.0</v>
       </c>
       <c r="K400" t="n">
-        <v>0.7718230252215551</v>
+        <v>0.0</v>
       </c>
       <c r="L400" t="n">
-        <v>0.84418404753434</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="401">
@@ -16025,37 +16025,37 @@
         <v>419.0</v>
       </c>
       <c r="B420" t="n">
-        <v>5.365023847260283</v>
+        <v>0.0</v>
       </c>
       <c r="C420" t="n">
-        <v>5.435657785475423</v>
+        <v>0.0</v>
       </c>
       <c r="D420" t="n">
-        <v>5.365023847260283</v>
+        <v>0.0</v>
       </c>
       <c r="E420" t="n">
-        <v>5.435657785475423</v>
+        <v>0.0</v>
       </c>
       <c r="F420" t="n">
-        <v>5.365023847260283</v>
+        <v>0.0</v>
       </c>
       <c r="G420" t="n">
-        <v>5.435657785475423</v>
+        <v>0.0</v>
       </c>
       <c r="H420" t="n">
-        <v>5.365023847260283</v>
+        <v>0.0</v>
       </c>
       <c r="I420" t="n">
-        <v>5.435657785475423</v>
+        <v>0.0</v>
       </c>
       <c r="J420" t="n">
-        <v>5.365023847260283</v>
+        <v>0.0</v>
       </c>
       <c r="K420" t="n">
-        <v>5.435657785475423</v>
+        <v>0.0</v>
       </c>
       <c r="L420" t="n">
-        <v>5.365023847260283</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="421">
@@ -17089,37 +17089,37 @@
         <v>447.0</v>
       </c>
       <c r="B448" t="n">
-        <v>1.7663682272756414</v>
+        <v>0.0</v>
       </c>
       <c r="C448" t="n">
-        <v>1.769572016737326</v>
+        <v>0.0</v>
       </c>
       <c r="D448" t="n">
-        <v>1.7663682272756414</v>
+        <v>0.0</v>
       </c>
       <c r="E448" t="n">
-        <v>1.769572016737326</v>
+        <v>0.0</v>
       </c>
       <c r="F448" t="n">
-        <v>1.7663682272756414</v>
+        <v>0.0</v>
       </c>
       <c r="G448" t="n">
-        <v>1.769572016737326</v>
+        <v>0.0</v>
       </c>
       <c r="H448" t="n">
-        <v>1.7663682272756414</v>
+        <v>0.0</v>
       </c>
       <c r="I448" t="n">
-        <v>1.769572016737326</v>
+        <v>0.0</v>
       </c>
       <c r="J448" t="n">
-        <v>1.7663682272756414</v>
+        <v>0.0</v>
       </c>
       <c r="K448" t="n">
-        <v>1.769572016737326</v>
+        <v>0.0</v>
       </c>
       <c r="L448" t="n">
-        <v>1.7663682272756414</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="449">
@@ -18343,37 +18343,37 @@
         <v>480.0</v>
       </c>
       <c r="B481" t="n">
-        <v>0.6982126610378422</v>
+        <v>0.0</v>
       </c>
       <c r="C481" t="n">
-        <v>0.7862342216785003</v>
+        <v>0.0</v>
       </c>
       <c r="D481" t="n">
-        <v>0.6982126610378422</v>
+        <v>0.0</v>
       </c>
       <c r="E481" t="n">
-        <v>0.7862342216785003</v>
+        <v>0.0</v>
       </c>
       <c r="F481" t="n">
-        <v>0.6982126610378422</v>
+        <v>0.0</v>
       </c>
       <c r="G481" t="n">
-        <v>0.7862342216785003</v>
+        <v>0.0</v>
       </c>
       <c r="H481" t="n">
-        <v>0.6982126610378422</v>
+        <v>0.0</v>
       </c>
       <c r="I481" t="n">
-        <v>0.7862342216785003</v>
+        <v>0.0</v>
       </c>
       <c r="J481" t="n">
-        <v>0.6982126610378422</v>
+        <v>0.0</v>
       </c>
       <c r="K481" t="n">
-        <v>0.7862342216785003</v>
+        <v>0.0</v>
       </c>
       <c r="L481" t="n">
-        <v>0.6982126610378422</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="482">
@@ -20661,37 +20661,37 @@
         <v>541.0</v>
       </c>
       <c r="B542" t="n">
-        <v>0.8162093577031628</v>
+        <v>0.0</v>
       </c>
       <c r="C542" t="n">
-        <v>0.6884634930963908</v>
+        <v>0.0</v>
       </c>
       <c r="D542" t="n">
-        <v>0.8162093577031628</v>
+        <v>0.0</v>
       </c>
       <c r="E542" t="n">
-        <v>0.6884634930963908</v>
+        <v>0.0</v>
       </c>
       <c r="F542" t="n">
-        <v>0.8162093577031628</v>
+        <v>0.0</v>
       </c>
       <c r="G542" t="n">
-        <v>0.6884634930963908</v>
+        <v>0.0</v>
       </c>
       <c r="H542" t="n">
-        <v>0.8162093577031628</v>
+        <v>0.0</v>
       </c>
       <c r="I542" t="n">
-        <v>0.6884634930963908</v>
+        <v>0.0</v>
       </c>
       <c r="J542" t="n">
-        <v>0.8162093577031628</v>
+        <v>0.0</v>
       </c>
       <c r="K542" t="n">
-        <v>0.6884634930963908</v>
+        <v>0.0</v>
       </c>
       <c r="L542" t="n">
-        <v>0.8162093577031628</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="543">
@@ -22979,37 +22979,37 @@
         <v>602.0</v>
       </c>
       <c r="B603" t="n">
-        <v>0.22473181024124655</v>
+        <v>0.0</v>
       </c>
       <c r="C603" t="n">
-        <v>0.25306307056762245</v>
+        <v>0.0</v>
       </c>
       <c r="D603" t="n">
-        <v>0.22473181024124655</v>
+        <v>0.0</v>
       </c>
       <c r="E603" t="n">
-        <v>0.25306307056762245</v>
+        <v>0.0</v>
       </c>
       <c r="F603" t="n">
-        <v>0.22473181024124655</v>
+        <v>0.0</v>
       </c>
       <c r="G603" t="n">
-        <v>0.25306307056762245</v>
+        <v>0.0</v>
       </c>
       <c r="H603" t="n">
-        <v>0.22473181024124655</v>
+        <v>0.0</v>
       </c>
       <c r="I603" t="n">
-        <v>0.25306307056762245</v>
+        <v>0.0</v>
       </c>
       <c r="J603" t="n">
-        <v>0.22473181024124655</v>
+        <v>0.0</v>
       </c>
       <c r="K603" t="n">
-        <v>0.25306307056762245</v>
+        <v>0.0</v>
       </c>
       <c r="L603" t="n">
-        <v>0.22473181024124655</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="604">
@@ -23815,37 +23815,37 @@
         <v>624.0</v>
       </c>
       <c r="B625" t="n">
-        <v>1.5219378146737628</v>
+        <v>0.0</v>
       </c>
       <c r="C625" t="n">
-        <v>1.2770009468117118</v>
+        <v>0.0</v>
       </c>
       <c r="D625" t="n">
-        <v>1.5219378146737628</v>
+        <v>0.0</v>
       </c>
       <c r="E625" t="n">
-        <v>1.2770009468117118</v>
+        <v>0.0</v>
       </c>
       <c r="F625" t="n">
-        <v>1.5219378146737628</v>
+        <v>0.0</v>
       </c>
       <c r="G625" t="n">
-        <v>1.2770009468117118</v>
+        <v>0.0</v>
       </c>
       <c r="H625" t="n">
-        <v>1.5219378146737628</v>
+        <v>0.0</v>
       </c>
       <c r="I625" t="n">
-        <v>1.2770009468117118</v>
+        <v>0.0</v>
       </c>
       <c r="J625" t="n">
-        <v>1.5219378146737628</v>
+        <v>0.0</v>
       </c>
       <c r="K625" t="n">
-        <v>1.2770009468117118</v>
+        <v>0.0</v>
       </c>
       <c r="L625" t="n">
-        <v>1.5219378146737628</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="626">
